--- a/bh3/501143273795556478_2021-03-12_11-31-51.xlsx
+++ b/bh3/501143273795556478_2021-03-12_11-31-51.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.7650462963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4265983250</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-14 19:17:25</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44269.80376157408</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -701,10 +713,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-13 20:50:51</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44268.86864583333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-13 20:43:38</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44268.86363425926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -847,10 +855,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-13 20:39:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44268.86108796296</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -922,10 +928,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-13 20:38:54</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44268.86034722222</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -997,10 +1001,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-13 19:41:34</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44268.82053240741</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1068,10 +1070,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-13 19:18:20</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44268.80439814815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1139,10 +1139,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-13 19:17:11</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44268.80359953704</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1210,10 +1208,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-13 18:57:17</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44268.78978009259</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1285,10 +1281,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-13 18:30:57</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44268.77149305555</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1356,10 +1350,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-13 18:29:02</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44268.77016203704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1431,10 +1423,8 @@
           <t>4258879095</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-13 12:36:16</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44268.52518518519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1494,10 +1484,8 @@
           <t>4258876435</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-13 12:34:41</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44268.52408564815</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1557,10 +1545,8 @@
           <t>4258846217</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-13 12:28:38</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44268.51988425926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1628,10 +1614,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-13 09:58:45</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44268.41579861111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1703,10 +1687,8 @@
           <t>4257984732</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-13 08:50:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44268.36844907407</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1778,10 +1760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-12 23:35:37</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44267.98306712963</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1845,10 +1825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-12 23:35:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44267.98287037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1912,10 +1890,8 @@
           <t>4256767264</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-12 22:59:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44267.95778935185</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1983,10 +1959,8 @@
           <t>4256748924</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-12 22:56:30</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44267.95590277778</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2046,10 +2020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-12 22:27:29</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44267.93575231481</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2121,10 +2093,8 @@
           <t>4253883166</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-12 22:27:03</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44267.93545138889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2188,10 +2158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:22:08</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44267.89037037037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2263,10 +2231,8 @@
           <t>4254357472</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:16:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44267.88648148148</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2330,10 +2296,8 @@
           <t>4256203784</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:16:07</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44267.88619212963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2397,10 +2361,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:12:32</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44267.8837037037</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2464,10 +2426,8 @@
           <t>4256165147</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-12 21:06:46</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44267.87969907407</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2543,10 +2503,8 @@
           <t>4256103387</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:54:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44267.87123842593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2622,10 +2580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:54:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44267.8710300926</v>
       </c>
       <c r="I31" t="n">
         <v>11</v>
@@ -2701,10 +2657,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:22:40</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44267.84907407407</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
@@ -2776,10 +2730,8 @@
           <t>4255797228</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:52:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44267.82780092592</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2843,10 +2795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:19:36</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44267.80527777778</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2914,10 +2864,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:12:50</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44267.8005787037</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
@@ -2981,10 +2929,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:02:35</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44267.79346064815</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
@@ -3056,10 +3002,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:53:55</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44267.78744212963</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -3135,10 +3079,8 @@
           <t>4255453737</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:44:30</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44267.78090277778</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3210,10 +3152,8 @@
           <t>4255391307</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:31:36</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44267.77194444444</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3281,10 +3221,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:21:50</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44267.76516203704</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
@@ -3348,10 +3286,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-12 18:10:41</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44267.75741898148</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3429,10 +3365,8 @@
           <t>4254357472</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:55:50</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44267.74710648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3500,10 +3434,8 @@
           <t>4255108828</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:36:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44267.73340277778</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
@@ -3563,10 +3495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:17:08</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44267.72023148148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3642,10 +3572,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:16:30</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44267.71979166667</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3717,10 +3645,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-12 17:13:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44267.71739583334</v>
       </c>
       <c r="I46" t="n">
         <v>13</v>
@@ -3792,10 +3718,8 @@
           <t>4254924978</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:53:03</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44267.70350694445</v>
       </c>
       <c r="I47" t="n">
         <v>10</v>
@@ -3859,10 +3783,8 @@
           <t>4254918392</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:48:55</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44267.70063657407</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3938,10 +3860,8 @@
           <t>4254897187</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:42:42</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44267.69631944445</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4009,10 +3929,8 @@
           <t>4254838615</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:26:50</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44267.68530092593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4081,10 +3999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:26:28</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44267.6850462963</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4160,10 +4076,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:20:54</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44267.68118055556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4223,10 +4137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:13:15</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44267.67586805556</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4298,10 +4210,8 @@
           <t>4254767411</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:04:38</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44267.66988425926</v>
       </c>
       <c r="I54" t="n">
         <v>20</v>
@@ -4373,10 +4283,8 @@
           <t>4254753294</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-12 16:00:50</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44267.66724537037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4452,10 +4360,8 @@
           <t>4254673532</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:35:57</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44267.64996527778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4523,10 +4429,8 @@
           <t>4254670079</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:32:38</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44267.64766203704</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4602,10 +4506,8 @@
           <t>4254662657</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:31:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44267.64666666667</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4681,10 +4583,8 @@
           <t>4254635366</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:22:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44267.64087962963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4756,10 +4656,8 @@
           <t>4254368953</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:12:57</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44267.63399305556</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4835,10 +4733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:12:10</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44267.63344907408</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4902,10 +4798,8 @@
           <t>4254368953</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-12 15:09:45</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44267.63177083333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4969,10 +4863,8 @@
           <t>4254530129</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:47:30</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44267.61631944445</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5040,10 +4932,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:42:48</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44267.61305555556</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5119,10 +5009,8 @@
           <t>4254368953</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:40:42</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44267.61159722223</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5198,10 +5086,8 @@
           <t>4254494085</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:37:13</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44267.60917824074</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5265,10 +5151,8 @@
           <t>4254474507</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:31:39</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44267.6053125</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5344,10 +5228,8 @@
           <t>4254001833</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:30:00</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44267.60416666666</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5419,10 +5301,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:28:57</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44267.6034375</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5498,10 +5378,8 @@
           <t>4254463643</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:26:41</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44267.60186342592</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5577,10 +5455,8 @@
           <t>4254303973</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:19:38</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44267.5969675926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5656,10 +5532,8 @@
           <t>4254450503</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:19:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44267.59652777778</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5727,10 +5601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:18:44</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44267.59634259259</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5806,10 +5678,8 @@
           <t>4254338379</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:11:51</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44267.5915625</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5877,10 +5747,8 @@
           <t>4254338379</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:09:24</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44267.58986111111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5944,10 +5812,8 @@
           <t>4254338379</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:05:30</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44267.58715277778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6015,10 +5881,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:04:46</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44267.58664351852</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6086,10 +5950,8 @@
           <t>4254357472</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-12 14:04:27</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44267.58642361111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6157,10 +6019,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:56:12</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44267.58069444444</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6224,10 +6084,8 @@
           <t>4254368953</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:55:49</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44267.58042824074</v>
       </c>
       <c r="I80" t="n">
         <v>4</v>
@@ -6291,10 +6149,8 @@
           <t>4254370214</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:53:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44267.57908564815</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6370,10 +6226,8 @@
           <t>4254366880</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:53:44</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44267.57898148148</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6437,10 +6291,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:53:41</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44267.57894675926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6508,10 +6360,8 @@
           <t>4254364437</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:53:13</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44267.57862268519</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6587,10 +6437,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:51:57</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44267.57774305555</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6666,10 +6514,8 @@
           <t>4254358014</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:51:45</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44267.57760416667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6745,10 +6591,8 @@
           <t>4254357472</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:51:16</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44267.57726851852</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6824,10 +6668,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:50:05</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44267.57644675926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6903,10 +6745,8 @@
           <t>4254343552</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:47:33</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44267.5746875</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6982,10 +6822,8 @@
           <t>4254338379</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:45:37</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44267.57334490741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7049,10 +6887,8 @@
           <t>4253814404</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:44:29</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44267.57255787037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7124,10 +6960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:43:48</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44267.57208333333</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7191,10 +7025,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:41:42</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44267.570625</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7266,10 +7098,8 @@
           <t>4254001833</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:41:05</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44267.57019675926</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7333,10 +7163,8 @@
           <t>4254330760</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:40:30</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44267.56979166667</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7413,10 +7241,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:36:51</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44267.56725694444</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7492,10 +7318,8 @@
           <t>4254299133</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:34:33</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44267.56565972222</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7563,10 +7387,8 @@
           <t>4254303973</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:34:28</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44267.56560185185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7638,10 +7460,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:33:48</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44267.56513888889</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7717,10 +7537,8 @@
           <t>4254303054</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:33:43</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44267.56508101852</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7796,10 +7614,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:31:03</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44267.56322916667</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7875,10 +7691,8 @@
           <t>4253813303</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:24:15</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44267.55850694444</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7954,10 +7768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:23:10</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44267.55775462963</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8025,10 +7837,8 @@
           <t>4254262330</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:23:00</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44267.55763888889</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8104,10 +7914,8 @@
           <t>4254251500</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:19:51</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44267.55545138889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8179,10 +7987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:15:04</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44267.55212962963</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8250,10 +8056,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:15:04</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44267.55212962963</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8325,10 +8129,8 @@
           <t>4254222120</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:12:47</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44267.55054398148</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8392,10 +8194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:12:42</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44267.55048611111</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8461,10 +8261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:11:04</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44267.54935185185</v>
       </c>
       <c r="I110" t="n">
         <v>47</v>
@@ -8536,10 +8334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:10:53</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44267.54922453704</v>
       </c>
       <c r="I111" t="n">
         <v>9</v>
@@ -8607,10 +8403,8 @@
           <t>4254211483</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:08:36</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44267.54763888889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8678,10 +8472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:06:51</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44267.54642361111</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8758,10 +8550,8 @@
           <t>4254200642</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:06:45</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44267.54635416667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8821,10 +8611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:05:39</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44267.54559027778</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8884,10 +8672,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:05:20</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44267.54537037037</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8951,10 +8737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:04:18</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44267.54465277777</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9038,10 +8822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:02:47</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44267.54359953704</v>
       </c>
       <c r="I118" t="n">
         <v>252</v>
@@ -9113,10 +8895,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:01:25</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44267.54265046296</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9184,10 +8964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:56:27</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44267.53920138889</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9255,10 +9033,8 @@
           <t>4254148014</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:55:12</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44267.53833333333</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9325,10 +9101,8 @@
           <t>4254145752</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:53:37</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44267.5372337963</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9404,10 +9178,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:52:33</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44267.53649305556</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9471,10 +9243,8 @@
           <t>4254136909</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:51:31</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44267.53577546297</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9554,10 +9324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:48:25</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44267.53362268519</v>
       </c>
       <c r="I125" t="n">
         <v>100</v>
@@ -9621,10 +9389,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:48:10</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44267.53344907407</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9684,10 +9450,8 @@
           <t>4254102837</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:44:48</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44267.53111111111</v>
       </c>
       <c r="I127" t="n">
         <v>16</v>
@@ -9755,10 +9519,8 @@
           <t>4253883166</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:43:15</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44267.53003472222</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9834,10 +9596,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:43:02</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44267.52988425926</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9913,10 +9673,8 @@
           <t>4254089380</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:42:26</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44267.52946759259</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9976,10 +9734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:40:47</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44267.52832175926</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10048,10 +9804,8 @@
           <t>4254085279</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:39:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44267.5275925926</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10123,10 +9877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:39:35</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44267.52748842593</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10198,10 +9950,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:39:16</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44267.52726851852</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10261,10 +10011,8 @@
           <t>4254075799</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:37:58</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44267.52636574074</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10336,10 +10084,8 @@
           <t>4254064933</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:37:24</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44267.52597222223</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10403,10 +10149,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:36:20</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44267.52523148148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10474,10 +10218,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:35:26</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44267.52460648148</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10545,10 +10287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:34:32</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44267.52398148148</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10624,10 +10364,8 @@
           <t>4254056249</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:33:53</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44267.52353009259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10699,10 +10437,8 @@
           <t>4254055297</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:33:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44267.52310185185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10770,10 +10506,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:32:27</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44267.52253472222</v>
       </c>
       <c r="I142" t="n">
         <v>10</v>
@@ -10837,10 +10571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:41</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44267.52200231481</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10912,10 +10644,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:38</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44267.52196759259</v>
       </c>
       <c r="I144" t="n">
         <v>4</v>
@@ -10987,10 +10717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:31:15</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44267.52170138889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11066,10 +10794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:30:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44267.52114583334</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11145,10 +10871,8 @@
           <t>4253813303</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:25:54</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44267.51798611111</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11220,10 +10944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:25:22</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44267.51761574074</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11295,10 +11017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:25:01</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44267.51737268519</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11362,10 +11082,8 @@
           <t>4254006315</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:23:52</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44267.51657407408</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11437,10 +11155,8 @@
           <t>4254010541</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:23:49</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44267.51653935185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11512,10 +11228,8 @@
           <t>4254001833</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:30</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44267.515625</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11591,10 +11305,8 @@
           <t>4254001573</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:20</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44267.51550925926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11658,10 +11370,8 @@
           <t>4254001519</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44267.51548611111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11737,10 +11447,8 @@
           <t>4253993922</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:13</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44267.51542824074</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11812,10 +11520,8 @@
           <t>4253997901</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:22:06</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44267.51534722222</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11883,10 +11589,8 @@
           <t>4253996454</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:21:07</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44267.51466435185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11946,10 +11650,8 @@
           <t>4253991818</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:20:46</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44267.5144212963</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -12025,10 +11727,8 @@
           <t>4253991405</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:20:30</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44267.51423611111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12088,10 +11788,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:20:30</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44267.51423611111</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12167,10 +11865,8 @@
           <t>4253987546</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:19:41</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44267.51366898148</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12234,10 +11930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44267.51283564815</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12305,10 +11999,8 @@
           <t>4253985759</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:29</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44267.51283564815</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12376,10 +12068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:27</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44267.5128125</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12447,10 +12137,8 @@
           <t>4253982360</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44267.5128125</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12514,10 +12202,8 @@
           <t>4253981698</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:18:00</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44267.5125</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12585,10 +12271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:17:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44267.51233796297</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12656,10 +12340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:15:20</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44267.51064814815</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12719,10 +12401,8 @@
           <t>4253963640</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:15:13</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44267.51056712963</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12786,10 +12466,8 @@
           <t>4253963522</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:15:08</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44267.51050925926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12865,10 +12543,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:14:33</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44267.51010416666</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12944,10 +12620,8 @@
           <t>4253965988</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:14:09</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44267.50982638889</v>
       </c>
       <c r="I172" t="n">
         <v>4</v>
@@ -13019,10 +12693,8 @@
           <t>4253958240</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:13:27</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44267.50934027778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13094,10 +12766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:13:17</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44267.50922453704</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13166,10 +12836,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:13:00</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44267.50902777778</v>
       </c>
       <c r="I175" t="n">
         <v>8</v>
@@ -13237,10 +12905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:12:14</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44267.50849537037</v>
       </c>
       <c r="I176" t="n">
         <v>163</v>
@@ -13316,10 +12982,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:12:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44267.50836805555</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13397,10 +13061,8 @@
           <t>4253955385</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:11:30</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44267.50798611111</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13476,10 +13138,8 @@
           <t>4253955192</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:11:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44267.50790509259</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13555,10 +13215,8 @@
           <t>4253946192</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:10:06</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44267.50701388889</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13634,10 +13292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:09:29</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44267.50658564815</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13705,10 +13361,8 @@
           <t>4253933970</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:08:31</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44267.50591435185</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13780,10 +13434,8 @@
           <t>4253935722</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:07:13</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44267.50501157407</v>
       </c>
       <c r="I183" t="n">
         <v>10</v>
@@ -13843,10 +13495,8 @@
           <t>4253924226</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:06:12</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44267.50430555556</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13922,10 +13572,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:05:39</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44267.50392361111</v>
       </c>
       <c r="I185" t="n">
         <v>6</v>
@@ -14001,10 +13649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:05:29</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44267.50380787037</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14073,10 +13719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:04:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44267.5032175926</v>
       </c>
       <c r="I187" t="n">
         <v>326</v>
@@ -14145,10 +13789,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:03:02</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44267.50210648148</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14224,10 +13866,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:02:51</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44267.50197916666</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14303,10 +13943,8 @@
           <t>4253843091</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:02:20</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44267.50162037037</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14378,10 +14016,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:02:13</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44267.50153935186</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14457,10 +14093,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:02:00</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44267.50138888889</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14536,10 +14170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:01:43</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44267.50119212963</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14615,10 +14247,8 @@
           <t>4253910931</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:01:25</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44267.50098379629</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14682,10 +14312,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:00:38</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44267.50043981482</v>
       </c>
       <c r="I195" t="n">
         <v>32</v>
@@ -14753,10 +14381,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-12 12:00:36</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44267.50041666667</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14822,10 +14448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:55</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44267.49994212963</v>
       </c>
       <c r="I197" t="n">
         <v>147</v>
@@ -14893,10 +14517,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:24</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44267.49958333333</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14973,10 +14595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44267.499375</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -15044,10 +14664,8 @@
           <t>4253897648</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:59:01</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44267.49931712963</v>
       </c>
       <c r="I200" t="n">
         <v>8</v>
@@ -15115,10 +14733,8 @@
           <t>4253900681</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:58</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44267.49928240741</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15194,10 +14810,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:51</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44267.49920138889</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
@@ -15257,10 +14871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:50</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44267.49918981481</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15320,10 +14932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:39</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44267.4990625</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15391,10 +15001,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:23</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44267.49887731481</v>
       </c>
       <c r="I205" t="n">
         <v>8</v>
@@ -15462,10 +15070,8 @@
           <t>4253896394</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:58:02</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44267.49863425926</v>
       </c>
       <c r="I206" t="n">
         <v>14</v>
@@ -15541,10 +15147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:59</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44267.49859953704</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15616,10 +15220,8 @@
           <t>4253896311</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:58</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44267.49858796296</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15695,10 +15297,8 @@
           <t>4253892454</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:36</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44267.49833333334</v>
       </c>
       <c r="I209" t="n">
         <v>6</v>
@@ -15758,10 +15358,8 @@
           <t>4253895608</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:25</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44267.49820601852</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15829,10 +15427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:24</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44267.49819444444</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15900,10 +15496,8 @@
           <t>4253888501</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:13</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44267.49806712963</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15971,10 +15565,8 @@
           <t>4253891962</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44267.49805555555</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16046,10 +15638,8 @@
           <t>4253888352</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:57:04</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44267.49796296296</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16125,10 +15715,8 @@
           <t>4253888215</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:56:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44267.49789351852</v>
       </c>
       <c r="I215" t="n">
         <v>5</v>
@@ -16200,10 +15788,8 @@
           <t>4253884447</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:56:28</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44267.4975462963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16279,10 +15865,8 @@
           <t>4253887312</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:56:12</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44267.49736111111</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16358,10 +15942,8 @@
           <t>4253886644</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:55:39</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44267.49697916667</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16437,10 +16019,8 @@
           <t>4253883166</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:55:26</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44267.4968287037</v>
       </c>
       <c r="I219" t="n">
         <v>48</v>
@@ -16508,10 +16088,8 @@
           <t>4253885802</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:54:57</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44267.49649305556</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16587,10 +16165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:54:49</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44267.49640046297</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16658,10 +16234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:54:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44267.4962037037</v>
       </c>
       <c r="I222" t="n">
         <v>131</v>
@@ -16726,10 +16300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:54:22</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44267.49608796297</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16797,10 +16369,8 @@
           <t>4253881173</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:53:44</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44267.49564814815</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16876,10 +16446,8 @@
           <t>4253875747</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:53:23</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44267.4954050926</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16951,10 +16519,8 @@
           <t>4253873522</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:53:03</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44267.49517361111</v>
       </c>
       <c r="I226" t="n">
         <v>3</v>
@@ -17026,10 +16592,8 @@
           <t>4253843091</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:52:29</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44267.49478009259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17101,10 +16665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:52:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44267.49469907407</v>
       </c>
       <c r="I228" t="n">
         <v>31</v>
@@ -17168,10 +16730,8 @@
           <t>4253875747</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:52:04</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44267.49449074074</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -17239,10 +16799,8 @@
           <t>4253843091</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:51:33</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44267.49413194445</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17314,10 +16872,8 @@
           <t>4253864738</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:51:12</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44267.49388888889</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17389,10 +16945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:50:28</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44267.49337962963</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17464,10 +17018,8 @@
           <t>4253862362</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:49:07</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44267.49244212963</v>
       </c>
       <c r="I233" t="n">
         <v>11</v>
@@ -17543,10 +17095,8 @@
           <t>4253843091</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:49:00</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44267.49236111111</v>
       </c>
       <c r="I234" t="n">
         <v>6</v>
@@ -17610,10 +17160,8 @@
           <t>4253858259</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:32</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44267.49203703704</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17677,10 +17225,8 @@
           <t>4253861358</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:16</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44267.49185185185</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17756,10 +17302,8 @@
           <t>4253861248</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:10</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44267.49178240741</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17835,10 +17379,8 @@
           <t>4253857800</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:08</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44267.49175925926</v>
       </c>
       <c r="I238" t="n">
         <v>14</v>
@@ -17914,10 +17456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:48:03</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44267.49170138889</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17977,10 +17517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:47:43</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44267.49146990741</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18048,10 +17586,8 @@
           <t>4253804750</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:47:20</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44267.49120370371</v>
       </c>
       <c r="I241" t="n">
         <v>8</v>
@@ -18119,10 +17655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:51</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44267.49086805555</v>
       </c>
       <c r="I242" t="n">
         <v>4</v>
@@ -18190,10 +17724,8 @@
           <t>4253853018</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:49</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44267.49084490741</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18257,10 +17789,8 @@
           <t>4253853014</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:49</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44267.49084490741</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18336,10 +17866,8 @@
           <t>4253852614</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44267.49060185185</v>
       </c>
       <c r="I245" t="n">
         <v>40</v>
@@ -18411,10 +17939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44267.49059027778</v>
       </c>
       <c r="I246" t="n">
         <v>25</v>
@@ -18490,10 +18016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:46:06</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44267.49034722222</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18569,10 +18093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44267.48951388889</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18644,10 +18166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:41</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44267.48936342593</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18719,10 +18239,8 @@
           <t>4253850531</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:39</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44267.48934027777</v>
       </c>
       <c r="I250" t="n">
         <v>4</v>
@@ -18798,10 +18316,8 @@
           <t>4253843114</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:04</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44267.48893518518</v>
       </c>
       <c r="I251" t="n">
         <v>3</v>
@@ -18873,10 +18389,8 @@
           <t>4253843091</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:44:02</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44267.48891203704</v>
       </c>
       <c r="I252" t="n">
         <v>16</v>
@@ -18948,10 +18462,8 @@
           <t>4253842709</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:43:42</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44267.48868055556</v>
       </c>
       <c r="I253" t="n">
         <v>8</v>
@@ -19023,10 +18535,8 @@
           <t>4253821676</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:43:41</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44267.48866898148</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19090,10 +18600,8 @@
           <t>4253838723</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:43:06</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44267.48826388889</v>
       </c>
       <c r="I255" t="n">
         <v>5</v>
@@ -19169,10 +18677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:43:04</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44267.48824074074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19243,10 +18749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:57</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44267.48746527778</v>
       </c>
       <c r="I257" t="n">
         <v>5</v>
@@ -19322,10 +18826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:52</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44267.48740740741</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19397,10 +18899,8 @@
           <t>4253833812</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:42</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44267.48729166666</v>
       </c>
       <c r="I259" t="n">
         <v>8</v>
@@ -19472,10 +18972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:38</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44267.48724537037</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19539,10 +19037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44267.48685185185</v>
       </c>
       <c r="I261" t="n">
         <v>251</v>
@@ -19614,10 +19110,8 @@
           <t>4253829647</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:41:04</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44267.48685185185</v>
       </c>
       <c r="I262" t="n">
         <v>4</v>
@@ -19693,10 +19187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:56</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44267.48675925926</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19768,10 +19260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:41</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44267.48658564815</v>
       </c>
       <c r="I264" t="n">
         <v>18</v>
@@ -19843,10 +19333,8 @@
           <t>4253829009</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44267.48645833333</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19910,10 +19398,8 @@
           <t>4253828997</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:29</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44267.48644675926</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19981,10 +19467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:40:03</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44267.48614583333</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -20056,10 +19540,8 @@
           <t>4253824533</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:39:25</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44267.48570601852</v>
       </c>
       <c r="I268" t="n">
         <v>3</v>
@@ -20135,10 +19617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:39:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44267.48554398148</v>
       </c>
       <c r="I269" t="n">
         <v>30</v>
@@ -20214,10 +19694,8 @@
           <t>4253823165</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:38:18</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44267.48493055555</v>
       </c>
       <c r="I270" t="n">
         <v>13</v>
@@ -20293,10 +19771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:38:07</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44267.48480324074</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20368,10 +19844,8 @@
           <t>4253819420</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:50</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44267.48460648148</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20447,10 +19921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:49</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44267.48459490741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20526,10 +19998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:43</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44267.48452546296</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20605,10 +20075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:37:10</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44267.48414351852</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20672,10 +20140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:59</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44267.48401620371</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20743,10 +20209,8 @@
           <t>4253821676</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:57</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44267.48399305555</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20822,10 +20286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:44</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44267.48384259259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20885,10 +20347,8 @@
           <t>4253814404</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:29</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44267.48366898148</v>
       </c>
       <c r="I279" t="n">
         <v>17</v>
@@ -20964,10 +20424,8 @@
           <t>4253817981</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:27</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44267.48364583333</v>
       </c>
       <c r="I280" t="n">
         <v>5</v>
@@ -21038,10 +20496,8 @@
           <t>4253813925</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:36:02</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44267.48335648148</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -21109,10 +20565,8 @@
           <t>4253813610</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:45</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44267.48315972222</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21176,10 +20630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:43</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44267.48313657408</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -21251,10 +20703,8 @@
           <t>4253813303</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:29</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44267.48297453704</v>
       </c>
       <c r="I284" t="n">
         <v>13</v>
@@ -21318,10 +20768,8 @@
           <t>4253812768</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:35:00</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44267.48263888889</v>
       </c>
       <c r="I285" t="n">
         <v>7</v>
@@ -21397,10 +20845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:52</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44267.4825462963</v>
       </c>
       <c r="I286" t="n">
         <v>708</v>
@@ -21464,10 +20910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44267.4825462963</v>
       </c>
       <c r="I287" t="n">
         <v>44</v>
@@ -21535,10 +20979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:47</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44267.48248842593</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21602,10 +21044,8 @@
           <t>4253809065</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:35</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44267.48234953704</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21681,10 +21121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:33</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44267.48232638889</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21756,10 +21194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:29</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44267.48228009259</v>
       </c>
       <c r="I291" t="n">
         <v>262</v>
@@ -21819,10 +21255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:34:05</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44267.48200231481</v>
       </c>
       <c r="I292" t="n">
         <v>7</v>
@@ -21890,10 +21324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:40</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44267.48171296297</v>
       </c>
       <c r="I293" t="n">
         <v>145</v>
@@ -21961,10 +21393,8 @@
           <t>4253804954</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:37</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44267.48167824074</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22028,10 +21458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:31</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44267.4816087963</v>
       </c>
       <c r="I295" t="n">
         <v>233</v>
@@ -22095,10 +21523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:27</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44267.4815625</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22166,10 +21592,8 @@
           <t>4253804768</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44267.4815625</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22245,10 +21669,8 @@
           <t>4253804750</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:26</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44267.48155092593</v>
       </c>
       <c r="I298" t="n">
         <v>52</v>
@@ -22320,10 +21742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:33:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44267.48136574074</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22399,10 +21819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:57</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44267.48121527778</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22478,10 +21896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:57</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44267.48121527778</v>
       </c>
       <c r="I301" t="n">
         <v>27</v>
@@ -22557,10 +21973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:54</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44267.48118055556</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22624,10 +22038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:43</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44267.48105324074</v>
       </c>
       <c r="I303" t="n">
         <v>4</v>
@@ -22699,10 +22111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:36</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44267.48097222222</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22774,10 +22184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:27</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44267.48086805556</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22841,10 +22249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:24</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44267.48083333333</v>
       </c>
       <c r="I306" t="n">
         <v>1228</v>
@@ -22920,10 +22326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:23</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44267.48082175926</v>
       </c>
       <c r="I307" t="n">
         <v>3</v>
@@ -22999,10 +22403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:21</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44267.48079861111</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23071,10 +22473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:21</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44267.48079861111</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23150,10 +22550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:20</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44267.48078703704</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23221,10 +22619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:20</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44267.48078703704</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -23296,10 +22692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:17</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44267.48075231481</v>
       </c>
       <c r="I312" t="n">
         <v>2</v>
@@ -23363,10 +22757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:17</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44267.48075231481</v>
       </c>
       <c r="I313" t="n">
         <v>16</v>
@@ -23434,10 +22826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:16</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44267.48074074074</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23513,10 +22903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:13</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44267.48070601852</v>
       </c>
       <c r="I315" t="n">
         <v>2</v>
@@ -23592,10 +22980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:32:04</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44267.48060185185</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
